--- a/pythonproject/output.xlsx
+++ b/pythonproject/output.xlsx
@@ -728,6 +728,56 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1300162" cy="852830"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1300162" cy="852830"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1164,7 +1214,11 @@
       <c r="A6" s="38" t="n"/>
       <c r="B6" s="39" t="n"/>
       <c r="C6" s="41" t="n"/>
-      <c r="D6" s="10" t="n"/>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F6" s="42" t="n"/>
     </row>
     <row r="7" ht="69.95" customHeight="1" s="25">
@@ -1175,7 +1229,11 @@
           <t>핫초코</t>
         </is>
       </c>
-      <c r="D7" s="10" t="n"/>
+      <c r="D7" s="10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F7" s="37">
         <f>SUM(E7:E8)</f>
         <v/>

--- a/pythonproject/output.xlsx
+++ b/pythonproject/output.xlsx
@@ -684,111 +684,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>3</col>
-      <colOff>0</colOff>
-      <row>3</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1300162" cy="850392"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>3</col>
-      <colOff>0</colOff>
-      <row>4</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1300162" cy="852830"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>3</col>
-      <colOff>0</colOff>
-      <row>5</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1300162" cy="852830"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>3</col>
-      <colOff>0</colOff>
-      <row>6</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1300162" cy="852830"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1110,7 +1005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1189,11 +1084,7 @@
           <t>다크블론드</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="D4" s="10" t="n"/>
       <c r="F4" s="37">
         <f>SUM(E4:E6)</f>
         <v/>
@@ -1203,22 +1094,14 @@
       <c r="A5" s="38" t="n"/>
       <c r="B5" s="39" t="n"/>
       <c r="C5" s="39" t="n"/>
-      <c r="D5" s="10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="D5" s="10" t="n"/>
       <c r="F5" s="40" t="n"/>
     </row>
     <row r="6" ht="69.95" customHeight="1" s="25">
       <c r="A6" s="38" t="n"/>
       <c r="B6" s="39" t="n"/>
       <c r="C6" s="41" t="n"/>
-      <c r="D6" s="10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="D6" s="10" t="n"/>
       <c r="F6" s="42" t="n"/>
     </row>
     <row r="7" ht="69.95" customHeight="1" s="25">
@@ -1229,11 +1112,7 @@
           <t>핫초코</t>
         </is>
       </c>
-      <c r="D7" s="10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="D7" s="10" t="n"/>
       <c r="F7" s="37">
         <f>SUM(E7:E8)</f>
         <v/>
@@ -1687,7 +1566,6 @@
     <brk id="23" min="0" max="5" man="1"/>
     <brk id="33" min="0" max="5" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
